--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24785.62521005931</v>
+        <v>-14690.3250195544</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24599774.12914689</v>
+        <v>24850678.74277196</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20674678.03925271</v>
+        <v>20656711.31533395</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1803485.87244486</v>
+        <v>1794709.65180476</v>
       </c>
     </row>
     <row r="11">
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>34.81979492599199</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K11" t="n">
-        <v>31.42917993820345</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L11" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M11" t="n">
-        <v>13.63155801534685</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N11" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P11" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R11" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8768,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K12" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L12" t="n">
-        <v>3.411388745407635</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>7.908981644977501</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.70843422154194</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R12" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K13" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L13" t="n">
-        <v>24.37397299861712</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M13" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N13" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O13" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P13" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>34.81979492599199</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K14" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L14" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M14" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N14" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P14" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q14" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R14" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K15" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L15" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R15" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K16" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L16" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M16" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N16" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O16" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P16" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>34.81979492599199</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K17" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L17" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M17" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N17" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P17" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R17" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K18" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L18" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R18" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K19" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L19" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M19" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N19" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O19" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P19" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>34.81979492599199</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K20" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L20" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M20" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N20" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P20" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R20" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K21" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L21" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R21" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K22" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L22" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M22" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N22" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O22" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P22" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>34.81979492599199</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K23" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L23" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M23" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N23" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P23" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R23" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K24" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L24" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R24" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K25" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L25" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M25" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N25" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O25" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P25" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>34.81979492599199</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K26" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L26" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M26" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N26" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P26" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R26" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K27" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L27" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R27" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K28" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L28" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M28" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N28" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O28" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P28" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>34.81979492599199</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K29" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L29" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M29" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N29" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P29" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R29" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K30" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L30" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R30" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K31" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L31" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M31" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N31" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O31" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P31" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>34.81979492599199</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K32" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L32" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M32" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N32" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P32" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q32" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R32" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K33" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L33" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R33" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K34" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L34" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M34" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N34" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O34" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P34" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>34.81979492599199</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K35" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L35" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M35" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N35" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P35" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q35" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R35" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K36" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L36" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R36" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K37" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L37" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M37" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N37" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O37" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P37" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>34.81979492599199</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K38" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L38" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M38" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N38" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P38" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q38" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R38" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K39" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L39" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R39" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K40" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L40" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M40" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N40" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O40" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P40" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>34.81979492599199</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K41" t="n">
-        <v>31.42917993820346</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L41" t="n">
-        <v>23.89450156601852</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M41" t="n">
-        <v>13.63155801534687</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N41" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>16.75322690579426</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P41" t="n">
-        <v>28.41253737042842</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q41" t="n">
-        <v>41.04366499467729</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R41" t="n">
-        <v>58.81494431611752</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>28.43664143721497</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K42" t="n">
-        <v>16.63032124124894</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L42" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>7.908981644977509</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.70843422154195</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R42" t="n">
-        <v>43.92968946019</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>37.04597107107902</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K43" t="n">
-        <v>28.6078221063498</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L43" t="n">
-        <v>24.37397299861713</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M43" t="n">
-        <v>24.3660030835062</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N43" t="n">
-        <v>20.57219157480551</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O43" t="n">
-        <v>27.31164863678001</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P43" t="n">
-        <v>31.16791274233458</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.31950182682881</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>34.81979492599199</v>
+        <v>28.24975120521682</v>
       </c>
       <c r="K44" t="n">
-        <v>31.42917993820346</v>
+        <v>21.58238750890047</v>
       </c>
       <c r="L44" t="n">
-        <v>23.89450156601852</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M44" t="n">
-        <v>13.63155801534687</v>
+        <v>0.03910817678591627</v>
       </c>
       <c r="N44" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>16.75322690579426</v>
+        <v>3.710578808370059</v>
       </c>
       <c r="P44" t="n">
-        <v>28.41253737042842</v>
+        <v>17.28093897160524</v>
       </c>
       <c r="Q44" t="n">
-        <v>41.04366499467729</v>
+        <v>32.68429818395125</v>
       </c>
       <c r="R44" t="n">
-        <v>58.81494431611752</v>
+        <v>53.95236302478606</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>28.43664143721497</v>
+        <v>24.52356840642668</v>
       </c>
       <c r="K45" t="n">
-        <v>16.63032124124894</v>
+        <v>9.942256166529454</v>
       </c>
       <c r="L45" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>7.908981644977509</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.70843422154195</v>
+        <v>20.42148944237374</v>
       </c>
       <c r="R45" t="n">
-        <v>43.92968946019</v>
+        <v>41.35815323513828</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>37.04597107107902</v>
+        <v>34.59103480405435</v>
       </c>
       <c r="K46" t="n">
-        <v>28.6078221063498</v>
+        <v>24.57360769300592</v>
       </c>
       <c r="L46" t="n">
-        <v>24.37397299861713</v>
+        <v>19.21156748094687</v>
       </c>
       <c r="M46" t="n">
-        <v>24.3660030835062</v>
+        <v>18.92297028778722</v>
       </c>
       <c r="N46" t="n">
-        <v>20.57219157480551</v>
+        <v>15.25858193319224</v>
       </c>
       <c r="O46" t="n">
-        <v>27.31164863678001</v>
+        <v>22.40367010010781</v>
       </c>
       <c r="P46" t="n">
-        <v>31.16791274233458</v>
+        <v>26.968289224719</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.31950182682881</v>
+        <v>41.41190018666367</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H11" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I11" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T11" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23349,13 +23351,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H12" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I12" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T12" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -23428,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H13" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I13" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S13" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T13" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23507,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H14" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I14" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T14" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23586,13 +23588,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H15" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I15" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T15" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -23665,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H16" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I16" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S16" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T16" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23744,13 +23746,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H17" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I17" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T17" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23823,13 +23825,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H18" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I18" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T18" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23902,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H19" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I19" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S19" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T19" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23981,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H20" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I20" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T20" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24060,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H21" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I21" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T21" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -24139,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H22" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I22" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S22" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T22" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24218,13 +24220,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H23" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I23" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T23" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24297,13 +24299,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H24" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I24" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T24" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H25" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I25" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S25" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T25" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24455,13 +24457,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H26" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I26" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T26" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24534,13 +24536,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H27" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I27" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T27" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -24613,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H28" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I28" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S28" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T28" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24692,13 +24694,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H29" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I29" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T29" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24771,13 +24773,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H30" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I30" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T30" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -24850,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H31" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I31" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S31" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T31" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24929,13 +24931,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H32" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I32" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T32" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -25008,13 +25010,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H33" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I33" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T33" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -25087,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H34" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I34" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S34" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T34" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25166,13 +25168,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H35" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I35" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T35" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25245,13 +25247,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H36" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I36" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T36" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -25324,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H37" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I37" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S37" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T37" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25403,13 +25405,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H38" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I38" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T38" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25482,13 +25484,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H39" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I39" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T39" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -25561,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H40" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I40" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S40" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T40" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25640,13 +25642,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H41" t="n">
-        <v>303.153370424964</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I41" t="n">
-        <v>67.99853108690158</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.5904949947116</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T41" t="n">
-        <v>217.9985240592434</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25719,13 +25721,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H42" t="n">
-        <v>67.69548664993043</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I42" t="n">
-        <v>12.18397769576295</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>102.4015191999815</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T42" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3613337192077</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -25798,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H43" t="n">
-        <v>146.3021152741505</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I43" t="n">
-        <v>109.062902574934</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>75.27006628211034</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S43" t="n">
-        <v>180.9814683209813</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T43" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25877,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1099319999439</v>
       </c>
       <c r="H44" t="n">
-        <v>303.153370424964</v>
+        <v>302.3605992765773</v>
       </c>
       <c r="I44" t="n">
-        <v>67.99853108690158</v>
+        <v>65.01419717276222</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.5904949947116</v>
+        <v>121.8265235513953</v>
       </c>
       <c r="T44" t="n">
-        <v>217.9985240592434</v>
+        <v>217.6596635000282</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4474012817928</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25956,13 +25958,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6360644509761</v>
       </c>
       <c r="H45" t="n">
-        <v>67.69548664993043</v>
+        <v>67.29547797745488</v>
       </c>
       <c r="I45" t="n">
-        <v>12.18397769576295</v>
+        <v>10.75797039379517</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>102.4015191999815</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T45" t="n">
-        <v>156.7700756945035</v>
+        <v>156.6031329288336</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3613337192077</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26035,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3396677736285</v>
       </c>
       <c r="H46" t="n">
-        <v>146.3021152741505</v>
+        <v>145.993393701674</v>
       </c>
       <c r="I46" t="n">
-        <v>109.062902574934</v>
+        <v>108.0186786876616</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>75.27006628211034</v>
+        <v>73.70878111087413</v>
       </c>
       <c r="S46" t="n">
-        <v>180.9814683209813</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T46" t="n">
-        <v>236.2837682760401</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9571721944234</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>153802.1574934608</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153802.1574934608</v>
+        <v>152681.62694502</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>29101.36365410268</v>
       </c>
       <c r="D2" t="n">
-        <v>29101.36365410268</v>
+        <v>29101.36365410269</v>
       </c>
       <c r="E2" t="n">
-        <v>30301.46824263263</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="F2" t="n">
-        <v>30301.46824263262</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="G2" t="n">
-        <v>30301.46824263262</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="H2" t="n">
-        <v>30301.46824263263</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="I2" t="n">
-        <v>30301.46824263263</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="J2" t="n">
-        <v>30301.46824263262</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="K2" t="n">
-        <v>30301.46824263263</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="L2" t="n">
-        <v>30301.46824263263</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="M2" t="n">
-        <v>30301.46824263263</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="N2" t="n">
-        <v>30301.46824263263</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="O2" t="n">
-        <v>30301.46824263263</v>
+        <v>30478.85266367178</v>
       </c>
       <c r="P2" t="n">
-        <v>30301.46824263263</v>
+        <v>30506.24648145185</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>90662.29316279097</v>
+        <v>104062.8571940181</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1714.448208943342</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>21826.02274057701</v>
       </c>
       <c r="E4" t="n">
-        <v>7345.060987403149</v>
+        <v>5484.049788294842</v>
       </c>
       <c r="F4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.049788294842</v>
       </c>
       <c r="G4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.04978829484</v>
       </c>
       <c r="H4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.04978829484</v>
       </c>
       <c r="I4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.049788294842</v>
       </c>
       <c r="J4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.04978829484</v>
       </c>
       <c r="K4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.04978829484</v>
       </c>
       <c r="L4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.04978829484</v>
       </c>
       <c r="M4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.04978829484</v>
       </c>
       <c r="N4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.04978829484</v>
       </c>
       <c r="O4" t="n">
-        <v>7345.06098740315</v>
+        <v>5484.04978829484</v>
       </c>
       <c r="P4" t="n">
-        <v>7345.06098740315</v>
+        <v>5234.768951336047</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="F5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="G5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="H5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="I5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="J5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="K5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="L5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="M5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="N5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="O5" t="n">
-        <v>2460.082911003373</v>
+        <v>2823.701538119219</v>
       </c>
       <c r="P5" t="n">
-        <v>2460.082911003373</v>
+        <v>2879.855863027215</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>-26352.25908647433</v>
       </c>
       <c r="D6" t="n">
-        <v>-26352.25908647433</v>
+        <v>-26352.25908647432</v>
       </c>
       <c r="E6" t="n">
-        <v>-70165.96881856486</v>
+        <v>-81891.75585676037</v>
       </c>
       <c r="F6" t="n">
-        <v>20496.32434422609</v>
+        <v>22171.10133725772</v>
       </c>
       <c r="G6" t="n">
-        <v>20496.3243442261</v>
+        <v>22171.10133725772</v>
       </c>
       <c r="H6" t="n">
-        <v>20496.3243442261</v>
+        <v>22171.10133725772</v>
       </c>
       <c r="I6" t="n">
-        <v>20496.3243442261</v>
+        <v>22171.10133725772</v>
       </c>
       <c r="J6" t="n">
-        <v>20496.3243442261</v>
+        <v>22171.10133725773</v>
       </c>
       <c r="K6" t="n">
-        <v>20496.3243442261</v>
+        <v>22171.10133725772</v>
       </c>
       <c r="L6" t="n">
-        <v>20496.3243442261</v>
+        <v>22171.10133725773</v>
       </c>
       <c r="M6" t="n">
-        <v>20496.3243442261</v>
+        <v>22171.10133725773</v>
       </c>
       <c r="N6" t="n">
-        <v>20496.3243442261</v>
+        <v>22171.10133725772</v>
       </c>
       <c r="O6" t="n">
-        <v>20496.3243442261</v>
+        <v>22171.10133725772</v>
       </c>
       <c r="P6" t="n">
-        <v>20496.3243442261</v>
+        <v>20677.17345814525</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="F3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="G3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="H3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="I3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="J3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="K3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="L3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="M3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="N3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="O3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="P3" t="n">
-        <v>112.8478399542832</v>
+        <v>132.1034799553768</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>112.8478399542832</v>
+        <v>129.5275934917073</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.575886463669576</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H11" t="n">
-        <v>4.646041973595184</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I11" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J11" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K11" t="n">
-        <v>57.70720973501367</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L11" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M11" t="n">
-        <v>79.6586664416986</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N11" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P11" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R11" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S11" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T11" t="n">
-        <v>1.985895153366329</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H12" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I12" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J12" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K12" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L12" t="n">
-        <v>52.70313506544142</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -31856,22 +31858,22 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>46.35065335782625</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.98418428329678</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R12" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S12" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0159690339557948</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H13" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I13" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J13" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K13" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L13" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M13" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N13" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O13" t="n">
-        <v>28.76324943621632</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P13" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.04002383309676</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R13" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S13" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H14" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I14" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J14" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K14" t="n">
-        <v>57.70720973501366</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L14" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M14" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N14" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P14" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R14" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S14" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H15" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I15" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J15" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K15" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L15" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -32093,22 +32095,22 @@
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R15" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S15" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H16" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I16" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J16" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K16" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L16" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M16" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N16" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O16" t="n">
-        <v>28.76324943621632</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P16" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.04002383309676</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R16" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S16" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H17" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I17" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J17" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K17" t="n">
-        <v>57.70720973501366</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L17" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M17" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N17" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O17" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P17" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R17" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S17" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H18" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I18" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J18" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K18" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L18" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -32330,22 +32332,22 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R18" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S18" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H19" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I19" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J19" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K19" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L19" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M19" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N19" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O19" t="n">
-        <v>28.76324943621632</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P19" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.04002383309676</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R19" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S19" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H20" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I20" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J20" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K20" t="n">
-        <v>57.70720973501366</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L20" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M20" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N20" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P20" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R20" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S20" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T20" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H21" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I21" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J21" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K21" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L21" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -32567,22 +32569,22 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R21" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S21" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H22" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I22" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J22" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K22" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L22" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M22" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N22" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O22" t="n">
-        <v>28.76324943621632</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P22" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.04002383309676</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R22" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S22" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H23" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I23" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J23" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K23" t="n">
-        <v>57.70720973501366</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L23" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M23" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N23" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P23" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R23" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S23" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H24" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I24" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J24" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K24" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L24" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
@@ -32804,22 +32806,22 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R24" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S24" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H25" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I25" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J25" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K25" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L25" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M25" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N25" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O25" t="n">
-        <v>28.76324943621632</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P25" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.04002383309676</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R25" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S25" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H26" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I26" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J26" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K26" t="n">
-        <v>57.70720973501366</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L26" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M26" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N26" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O26" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P26" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R26" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S26" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H27" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I27" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J27" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K27" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L27" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -33041,22 +33043,22 @@
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R27" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S27" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H28" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I28" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J28" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K28" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L28" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M28" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N28" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O28" t="n">
-        <v>28.76324943621632</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P28" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.04002383309676</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R28" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S28" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H29" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I29" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J29" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K29" t="n">
-        <v>57.70720973501366</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L29" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M29" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N29" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P29" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R29" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S29" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T29" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H30" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I30" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J30" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K30" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L30" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -33278,22 +33280,22 @@
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R30" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S30" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H31" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I31" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J31" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K31" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L31" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M31" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N31" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O31" t="n">
-        <v>28.76324943621632</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P31" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.04002383309676</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R31" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S31" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H32" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I32" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J32" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K32" t="n">
-        <v>57.70720973501366</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L32" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M32" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N32" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O32" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P32" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R32" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S32" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T32" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H33" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I33" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J33" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K33" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L33" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -33515,22 +33517,22 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R33" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S33" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H34" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I34" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J34" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K34" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L34" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M34" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N34" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O34" t="n">
-        <v>28.76324943621632</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P34" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.04002383309676</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R34" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S34" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H35" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I35" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J35" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K35" t="n">
-        <v>57.70720973501366</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L35" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M35" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N35" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P35" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R35" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S35" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T35" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H36" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I36" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J36" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K36" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L36" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -33752,22 +33754,22 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R36" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S36" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H37" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I37" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J37" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K37" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L37" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M37" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N37" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O37" t="n">
-        <v>28.76324943621632</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P37" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.04002383309676</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R37" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S37" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H38" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I38" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J38" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K38" t="n">
-        <v>57.70720973501366</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L38" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M38" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N38" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O38" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P38" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R38" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S38" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T38" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H39" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I39" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J39" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K39" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L39" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -33989,22 +33991,22 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R39" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S39" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H40" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I40" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J40" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K40" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L40" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M40" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N40" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O40" t="n">
-        <v>28.76324943621632</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P40" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.04002383309676</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R40" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S40" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H41" t="n">
-        <v>4.646041973595183</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I41" t="n">
-        <v>17.48971396919599</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J41" t="n">
-        <v>38.50379640731595</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K41" t="n">
-        <v>57.70720973501366</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L41" t="n">
-        <v>71.5908964968263</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M41" t="n">
-        <v>79.65866644169859</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N41" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>76.43654871998886</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P41" t="n">
-        <v>65.23682591045574</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.99013940447476</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R41" t="n">
-        <v>28.497198498606</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S41" t="n">
-        <v>10.33776945912856</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T41" t="n">
-        <v>1.98589515336633</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H42" t="n">
-        <v>2.344254184710675</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I42" t="n">
-        <v>8.357127770199273</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J42" t="n">
-        <v>22.93259736278504</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K42" t="n">
-        <v>39.19546154336646</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L42" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -34226,22 +34228,22 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>46.35065335782624</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.98418428329677</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R42" t="n">
-        <v>15.07050964521541</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S42" t="n">
-        <v>4.508590586852725</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H43" t="n">
-        <v>1.809265368447361</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I43" t="n">
-        <v>6.119682861783096</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J43" t="n">
-        <v>14.38717461187639</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K43" t="n">
-        <v>23.64254745271703</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L43" t="n">
-        <v>30.25432089528438</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M43" t="n">
-        <v>31.89893941527384</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N43" t="n">
-        <v>31.14045393361393</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O43" t="n">
-        <v>28.76324943621632</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P43" t="n">
-        <v>24.61192889757021</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.04002383309676</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R43" t="n">
-        <v>9.149924859244006</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S43" t="n">
-        <v>3.546382117907553</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5310692661522682</v>
       </c>
       <c r="H44" t="n">
-        <v>4.646041973595183</v>
+        <v>5.438813121981919</v>
       </c>
       <c r="I44" t="n">
-        <v>17.48971396919599</v>
+        <v>20.47404788333534</v>
       </c>
       <c r="J44" t="n">
-        <v>38.50379640731595</v>
+        <v>45.07384012809112</v>
       </c>
       <c r="K44" t="n">
-        <v>57.70720973501366</v>
+        <v>67.55400216431666</v>
       </c>
       <c r="L44" t="n">
-        <v>71.5908964968263</v>
+        <v>83.80671321832415</v>
       </c>
       <c r="M44" t="n">
-        <v>79.65866644169859</v>
+        <v>93.25111628025954</v>
       </c>
       <c r="N44" t="n">
-        <v>80.94762694529702</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>76.43654871998886</v>
+        <v>89.47919681741307</v>
       </c>
       <c r="P44" t="n">
-        <v>65.23682591045574</v>
+        <v>76.36842430927892</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.99013940447476</v>
+        <v>57.3495062152008</v>
       </c>
       <c r="R44" t="n">
-        <v>28.497198498606</v>
+        <v>33.35977978993746</v>
       </c>
       <c r="S44" t="n">
-        <v>10.33776945912856</v>
+        <v>12.10174090244483</v>
       </c>
       <c r="T44" t="n">
-        <v>1.98589515336633</v>
+        <v>2.324755712581556</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04248554129218145</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2841471078285464</v>
       </c>
       <c r="H45" t="n">
-        <v>2.344254184710675</v>
+        <v>2.744262857186225</v>
       </c>
       <c r="I45" t="n">
-        <v>8.357127770199273</v>
+        <v>9.78313507216706</v>
       </c>
       <c r="J45" t="n">
-        <v>22.93259736278504</v>
+        <v>26.84567039357333</v>
       </c>
       <c r="K45" t="n">
-        <v>39.19546154336646</v>
+        <v>45.88352661808594</v>
       </c>
       <c r="L45" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -34463,22 +34465,22 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>46.35065335782624</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.98418428329677</v>
+        <v>36.27112906246498</v>
       </c>
       <c r="R45" t="n">
-        <v>15.07050964521541</v>
+        <v>17.64204587026713</v>
       </c>
       <c r="S45" t="n">
-        <v>4.508590586852725</v>
+        <v>5.27790790199076</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.145312246028219</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01869388867293069</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2382193900834664</v>
       </c>
       <c r="H46" t="n">
-        <v>1.809265368447361</v>
+        <v>2.117986940923912</v>
       </c>
       <c r="I46" t="n">
-        <v>6.119682861783096</v>
+        <v>7.16390674905552</v>
       </c>
       <c r="J46" t="n">
-        <v>14.38717461187639</v>
+        <v>16.84211087890107</v>
       </c>
       <c r="K46" t="n">
-        <v>23.64254745271703</v>
+        <v>27.67676186606091</v>
       </c>
       <c r="L46" t="n">
-        <v>30.25432089528438</v>
+        <v>35.41672641295464</v>
       </c>
       <c r="M46" t="n">
-        <v>31.89893941527384</v>
+        <v>37.34197221099282</v>
       </c>
       <c r="N46" t="n">
-        <v>31.14045393361393</v>
+        <v>36.4540635752272</v>
       </c>
       <c r="O46" t="n">
-        <v>28.76324943621632</v>
+        <v>33.67122797288852</v>
       </c>
       <c r="P46" t="n">
-        <v>24.61192889757021</v>
+        <v>28.81155241518578</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.04002383309676</v>
+        <v>19.9476254732619</v>
       </c>
       <c r="R46" t="n">
-        <v>9.149924859244006</v>
+        <v>10.71121003048022</v>
       </c>
       <c r="S46" t="n">
-        <v>3.546382117907553</v>
+        <v>4.151514279909136</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8694833570248045</v>
+        <v>1.017846484902083</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01299378491364364</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14690.3250195544</v>
+        <v>-26434.07497206646</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24850678.74277196</v>
+        <v>24847908.95569464</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20656711.31533395</v>
+        <v>20656939.59714879</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1794709.65180476</v>
+        <v>1794777.145581971</v>
       </c>
     </row>
     <row r="11">
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.1286462554515</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K23" t="n">
-        <v>22.89962335916383</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L23" t="n">
-        <v>13.31283239473389</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M23" t="n">
         <v>1.857412192921856</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5.455334146684066</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P23" t="n">
-        <v>18.77004728651484</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q23" t="n">
         <v>33.80255651301093</v>
@@ -9798,10 +9798,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K25" t="n">
-        <v>25.11327702096817</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L25" t="n">
-        <v>19.90215841909199</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M25" t="n">
         <v>19.6511016040668</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>28.24975120521682</v>
+        <v>29.1286462554515</v>
       </c>
       <c r="K44" t="n">
-        <v>21.58238750890047</v>
+        <v>22.89962335916383</v>
       </c>
       <c r="L44" t="n">
-        <v>11.67868484452067</v>
+        <v>13.31283239473389</v>
       </c>
       <c r="M44" t="n">
-        <v>0.03910817678591627</v>
+        <v>1.857412192921856</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>3.710578808370059</v>
+        <v>5.455334146684066</v>
       </c>
       <c r="P44" t="n">
-        <v>17.28093897160524</v>
+        <v>18.77004728651484</v>
       </c>
       <c r="Q44" t="n">
-        <v>32.68429818395125</v>
+        <v>33.80255651301093</v>
       </c>
       <c r="R44" t="n">
-        <v>53.95236302478606</v>
+        <v>54.60284554970459</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>24.52356840642668</v>
+        <v>25.04703227731259</v>
       </c>
       <c r="K45" t="n">
-        <v>9.942256166529454</v>
+        <v>10.83693929797212</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.058008913728727</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.42148944237374</v>
+        <v>21.1287403823609</v>
       </c>
       <c r="R45" t="n">
-        <v>41.35815323513828</v>
+        <v>41.70215558211665</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.59103480405435</v>
+        <v>34.91943921434874</v>
       </c>
       <c r="K46" t="n">
-        <v>24.57360769300592</v>
+        <v>25.11327702096817</v>
       </c>
       <c r="L46" t="n">
-        <v>19.21156748094687</v>
+        <v>19.90215841909199</v>
       </c>
       <c r="M46" t="n">
-        <v>18.92297028778722</v>
+        <v>19.6511016040668</v>
       </c>
       <c r="N46" t="n">
-        <v>15.25858193319224</v>
+        <v>15.9693999142242</v>
       </c>
       <c r="O46" t="n">
-        <v>22.40367010010781</v>
+        <v>23.06022555481493</v>
       </c>
       <c r="P46" t="n">
-        <v>26.968289224719</v>
+        <v>27.53008583968064</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.41190018666367</v>
+        <v>41.80085904267777</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.1099319999439</v>
+        <v>404.1202873224108</v>
       </c>
       <c r="H44" t="n">
-        <v>302.3605992765773</v>
+        <v>302.4666507227926</v>
       </c>
       <c r="I44" t="n">
-        <v>65.01419717276222</v>
+        <v>65.41342074217175</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>121.8265235513953</v>
+        <v>122.0624954621124</v>
       </c>
       <c r="T44" t="n">
-        <v>217.6596635000282</v>
+        <v>217.7049939241276</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4474012817928</v>
+        <v>254.4482297075902</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25958,13 +25958,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.6360644509761</v>
+        <v>105.6416050369546</v>
       </c>
       <c r="H45" t="n">
-        <v>67.29547797745488</v>
+        <v>67.34898837361527</v>
       </c>
       <c r="I45" t="n">
-        <v>10.75797039379517</v>
+        <v>10.94873179700088</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>101.6322018848435</v>
+        <v>101.7351158393118</v>
       </c>
       <c r="T45" t="n">
-        <v>156.6031329288336</v>
+        <v>156.6254653784574</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3586088644905</v>
+        <v>195.358973376726</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3396677736285</v>
+        <v>165.3443128147925</v>
       </c>
       <c r="H46" t="n">
-        <v>145.993393701674</v>
+        <v>146.0346923403866</v>
       </c>
       <c r="I46" t="n">
-        <v>108.0186786876616</v>
+        <v>108.158367743757</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.70878111087413</v>
+        <v>73.91763905266609</v>
       </c>
       <c r="S46" t="n">
-        <v>180.3763361589797</v>
+        <v>180.457286558174</v>
       </c>
       <c r="T46" t="n">
-        <v>236.1354051481628</v>
+        <v>236.1552521422272</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9571721944234</v>
+        <v>279.9574255603051</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152681.62694502</v>
+        <v>152798.5043293752</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>29101.36365410268</v>
       </c>
       <c r="C2" t="n">
+        <v>29101.36365410269</v>
+      </c>
+      <c r="D2" t="n">
         <v>29101.36365410268</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29101.36365410269</v>
       </c>
       <c r="E2" t="n">
         <v>30478.85266367178</v>
@@ -26328,22 +26328,22 @@
         <v>30478.85266367178</v>
       </c>
       <c r="G2" t="n">
-        <v>30478.85266367178</v>
+        <v>30478.8526636718</v>
       </c>
       <c r="H2" t="n">
-        <v>30478.85266367178</v>
+        <v>30478.8526636718</v>
       </c>
       <c r="I2" t="n">
-        <v>30478.85266367178</v>
+        <v>30478.8526636718</v>
       </c>
       <c r="J2" t="n">
-        <v>30478.85266367178</v>
+        <v>30478.8526636718</v>
       </c>
       <c r="K2" t="n">
-        <v>30478.85266367178</v>
+        <v>30478.8526636718</v>
       </c>
       <c r="L2" t="n">
-        <v>30478.85266367178</v>
+        <v>30478.8526636718</v>
       </c>
       <c r="M2" t="n">
         <v>30478.85266367178</v>
@@ -26355,7 +26355,7 @@
         <v>30478.85266367178</v>
       </c>
       <c r="P2" t="n">
-        <v>30506.24648145185</v>
+        <v>30478.85266367178</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1714.448208943342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,10 +26426,10 @@
         <v>21826.02274057701</v>
       </c>
       <c r="E4" t="n">
-        <v>5484.049788294842</v>
+        <v>5484.049788294841</v>
       </c>
       <c r="F4" t="n">
-        <v>5484.049788294842</v>
+        <v>5484.049788294841</v>
       </c>
       <c r="G4" t="n">
         <v>5484.04978829484</v>
@@ -26438,7 +26438,7 @@
         <v>5484.04978829484</v>
       </c>
       <c r="I4" t="n">
-        <v>5484.049788294842</v>
+        <v>5484.04978829484</v>
       </c>
       <c r="J4" t="n">
         <v>5484.04978829484</v>
@@ -26459,7 +26459,7 @@
         <v>5484.04978829484</v>
       </c>
       <c r="P4" t="n">
-        <v>5234.768951336047</v>
+        <v>5484.049788294841</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>2823.701538119219</v>
       </c>
       <c r="P5" t="n">
-        <v>2879.855863027215</v>
+        <v>2823.701538119219</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26352.25908647433</v>
+        <v>-27738.57165301471</v>
       </c>
       <c r="C6" t="n">
-        <v>-26352.25908647433</v>
+        <v>-27738.5716530147</v>
       </c>
       <c r="D6" t="n">
-        <v>-26352.25908647432</v>
+        <v>-27738.5716530147</v>
       </c>
       <c r="E6" t="n">
-        <v>-81891.75585676037</v>
+        <v>-83266.58934822101</v>
       </c>
       <c r="F6" t="n">
-        <v>22171.10133725772</v>
+        <v>20796.26784579708</v>
       </c>
       <c r="G6" t="n">
-        <v>22171.10133725772</v>
+        <v>20796.2678457971</v>
       </c>
       <c r="H6" t="n">
-        <v>22171.10133725772</v>
+        <v>20796.2678457971</v>
       </c>
       <c r="I6" t="n">
-        <v>22171.10133725772</v>
+        <v>20796.2678457971</v>
       </c>
       <c r="J6" t="n">
-        <v>22171.10133725773</v>
+        <v>20796.2678457971</v>
       </c>
       <c r="K6" t="n">
-        <v>22171.10133725772</v>
+        <v>20796.2678457971</v>
       </c>
       <c r="L6" t="n">
-        <v>22171.10133725773</v>
+        <v>20796.2678457971</v>
       </c>
       <c r="M6" t="n">
-        <v>22171.10133725773</v>
+        <v>20796.26784579708</v>
       </c>
       <c r="N6" t="n">
-        <v>22171.10133725772</v>
+        <v>20796.26784579708</v>
       </c>
       <c r="O6" t="n">
-        <v>22171.10133725772</v>
+        <v>20796.26784579709</v>
       </c>
       <c r="P6" t="n">
-        <v>20677.17345814525</v>
+        <v>20796.26784579708</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>129.5275934917073</v>
       </c>
       <c r="P3" t="n">
-        <v>132.1034799553768</v>
+        <v>129.5275934917073</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.575886463669576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -32484,7 +32484,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O20" t="n">
         <v>87.73444147909908</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5207139436852549</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H23" t="n">
-        <v>5.332761675766618</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I23" t="n">
         <v>20.07482431392581</v>
@@ -32712,10 +32712,10 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K23" t="n">
-        <v>66.2367663140533</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L23" t="n">
-        <v>82.17256566811093</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M23" t="n">
         <v>91.4328122641236</v>
@@ -32724,13 +32724,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>87.73444147909906</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P23" t="n">
-        <v>74.87931599436932</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.23124788614111</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R23" t="n">
         <v>32.70929726501893</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2786065218500873</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H24" t="n">
         <v>2.690752461025844</v>
@@ -32812,7 +32812,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R24" t="n">
-        <v>17.29804352328876</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S24" t="n">
         <v>5.174993947522452</v>
@@ -32821,7 +32821,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01832937643750575</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,7 +32864,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I25" t="n">
-        <v>7.024217692960127</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J25" t="n">
         <v>16.51370646860668</v>
@@ -32876,19 +32876,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M25" t="n">
-        <v>36.61384089471324</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N25" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O25" t="n">
-        <v>33.01467251818139</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P25" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.55866661724779</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R25" t="n">
         <v>10.50235208868826</v>
@@ -32897,7 +32897,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9979994908377441</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U25" t="n">
         <v>0.01274041903197122</v>
@@ -32958,7 +32958,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
         <v>87.73444147909908</v>
@@ -33432,7 +33432,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
         <v>87.73444147909908</v>
@@ -33669,7 +33669,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O35" t="n">
         <v>87.73444147909908</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5310692661522682</v>
+        <v>0.5207139436852549</v>
       </c>
       <c r="H44" t="n">
-        <v>5.438813121981919</v>
+        <v>5.332761675766618</v>
       </c>
       <c r="I44" t="n">
-        <v>20.47404788333534</v>
+        <v>20.07482431392581</v>
       </c>
       <c r="J44" t="n">
-        <v>45.07384012809112</v>
+        <v>44.19494507785645</v>
       </c>
       <c r="K44" t="n">
-        <v>67.55400216431666</v>
+        <v>66.2367663140533</v>
       </c>
       <c r="L44" t="n">
-        <v>83.80671321832415</v>
+        <v>82.17256566811093</v>
       </c>
       <c r="M44" t="n">
-        <v>93.25111628025954</v>
+        <v>91.4328122641236</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>89.47919681741307</v>
+        <v>87.73444147909906</v>
       </c>
       <c r="P44" t="n">
-        <v>76.36842430927892</v>
+        <v>74.87931599436932</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.3495062152008</v>
+        <v>56.23124788614111</v>
       </c>
       <c r="R44" t="n">
-        <v>33.35977978993746</v>
+        <v>32.70929726501893</v>
       </c>
       <c r="S44" t="n">
-        <v>12.10174090244483</v>
+        <v>11.86576899172776</v>
       </c>
       <c r="T44" t="n">
-        <v>2.324755712581556</v>
+        <v>2.279425288482205</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04248554129218145</v>
+        <v>0.04165711549482039</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2841471078285464</v>
+        <v>0.2786065218500873</v>
       </c>
       <c r="H45" t="n">
-        <v>2.744262857186225</v>
+        <v>2.690752461025844</v>
       </c>
       <c r="I45" t="n">
-        <v>9.78313507216706</v>
+        <v>9.592373668961342</v>
       </c>
       <c r="J45" t="n">
-        <v>26.84567039357333</v>
+        <v>26.32220652268742</v>
       </c>
       <c r="K45" t="n">
-        <v>45.88352661808594</v>
+        <v>44.98884348664328</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
@@ -34465,22 +34465,22 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>53.20162608907502</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.27112906246498</v>
+        <v>35.56387812247782</v>
       </c>
       <c r="R45" t="n">
-        <v>17.64204587026713</v>
+        <v>17.29804352328876</v>
       </c>
       <c r="S45" t="n">
-        <v>5.27790790199076</v>
+        <v>5.174993947522452</v>
       </c>
       <c r="T45" t="n">
-        <v>1.145312246028219</v>
+        <v>1.122979796404518</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01869388867293069</v>
+        <v>0.01832937643750575</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2382193900834664</v>
+        <v>0.2335743489194721</v>
       </c>
       <c r="H46" t="n">
-        <v>2.117986940923912</v>
+        <v>2.076688302211308</v>
       </c>
       <c r="I46" t="n">
-        <v>7.16390674905552</v>
+        <v>7.024217692960127</v>
       </c>
       <c r="J46" t="n">
-        <v>16.84211087890107</v>
+        <v>16.51370646860668</v>
       </c>
       <c r="K46" t="n">
-        <v>27.67676186606091</v>
+        <v>27.13709253809866</v>
       </c>
       <c r="L46" t="n">
-        <v>35.41672641295464</v>
+        <v>34.72613547480952</v>
       </c>
       <c r="M46" t="n">
-        <v>37.34197221099282</v>
+        <v>36.61384089471324</v>
       </c>
       <c r="N46" t="n">
-        <v>36.4540635752272</v>
+        <v>35.74324559419524</v>
       </c>
       <c r="O46" t="n">
-        <v>33.67122797288852</v>
+        <v>33.01467251818139</v>
       </c>
       <c r="P46" t="n">
-        <v>28.81155241518578</v>
+        <v>28.24975580022414</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.9476254732619</v>
+        <v>19.55866661724779</v>
       </c>
       <c r="R46" t="n">
-        <v>10.71121003048022</v>
+        <v>10.50235208868826</v>
       </c>
       <c r="S46" t="n">
-        <v>4.151514279909136</v>
+        <v>4.070563880714799</v>
       </c>
       <c r="T46" t="n">
-        <v>1.017846484902083</v>
+        <v>0.9979994908377441</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01299378491364364</v>
+        <v>0.01274041903197122</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
